--- a/dados/mtcars_desconfigurado.xlsx
+++ b/dados/mtcars_desconfigurado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/curso-r/intro-programacao-em-r-mestre/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9470adf2b9a88f3/Documents/202005-r4ds-1/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF13DB-FB39-9A4A-A4CA-AC5F08EE0D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AACF13DB-FB39-9A4A-A4CA-AC5F08EE0D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3747034-05B9-472C-9456-133C00ACD8C9}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="22980" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6132" yWindow="984" windowWidth="12732" windowHeight="9744" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,9 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881755-51D9-5F44-B76B-A00F2C3FFDE8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -464,23 +464,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43971</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -550,7 +553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
@@ -585,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22.8</v>
       </c>
@@ -620,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -655,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>18.7</v>
       </c>
@@ -690,7 +693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18.100000000000001</v>
       </c>
@@ -725,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14.3</v>
       </c>
@@ -760,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24.4</v>
       </c>
@@ -795,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22.8</v>
       </c>
@@ -830,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19.2</v>
       </c>
@@ -865,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17.8</v>
       </c>
@@ -897,7 +900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16.399999999999999</v>
       </c>
@@ -932,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17.3</v>
       </c>
@@ -967,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15.2</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10.4</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10.4</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14.7</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>32.4</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30.4</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>33.9</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21.5</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15.5</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15.2</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13.3</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19.2</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27.3</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30.4</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15.8</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>19.7</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>15</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>21.4</v>
       </c>
